--- a/input_excel.xlsx
+++ b/input_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B315A5-54A5-4B2E-AD9D-B6A59ACB9369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7994AD51-E2AD-4AF1-8DE7-FC2AF58552BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{29941D9F-BD00-4152-B376-C45173F1490C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{29941D9F-BD00-4152-B376-C45173F1490C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,1141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
   <si>
     <t>상품코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8809027550749</t>
+  </si>
+  <si>
+    <t>8801728107604</t>
+  </si>
+  <si>
+    <t>4974234810475</t>
+  </si>
+  <si>
+    <t>8801045702643</t>
+  </si>
+  <si>
+    <t>8801056052218</t>
+  </si>
+  <si>
+    <t>8801056098216</t>
+  </si>
+  <si>
+    <t>8801117948511</t>
+  </si>
+  <si>
+    <t>8801382126232</t>
+  </si>
+  <si>
+    <t>6971804650422</t>
+  </si>
+  <si>
+    <t>8801045030098</t>
+  </si>
+  <si>
+    <t>8801056102579</t>
+  </si>
+  <si>
+    <t>8809807286042</t>
+  </si>
+  <si>
+    <t>8801056090227</t>
+  </si>
+  <si>
+    <t>8801166239912</t>
+  </si>
+  <si>
+    <t>8801382128045</t>
+  </si>
+  <si>
+    <t>8801858044701</t>
+  </si>
+  <si>
+    <t>8809477910421</t>
+  </si>
+  <si>
+    <t>9300682051507</t>
+  </si>
+  <si>
+    <t>4901360353637</t>
+  </si>
+  <si>
+    <t>50426416</t>
+  </si>
+  <si>
+    <t>6291003087325</t>
+  </si>
+  <si>
+    <t>80847557</t>
+  </si>
+  <si>
+    <t>8436036186258</t>
+  </si>
+  <si>
+    <t>8801005876544</t>
+  </si>
+  <si>
+    <t>8801007314891</t>
+  </si>
+  <si>
+    <t>8801007403205</t>
+  </si>
+  <si>
+    <t>8801019309946</t>
+  </si>
+  <si>
+    <t>8801019310928</t>
+  </si>
+  <si>
+    <t>8801045892207</t>
+  </si>
+  <si>
+    <t>8801045892641</t>
+  </si>
+  <si>
+    <t>8801117108908</t>
+  </si>
+  <si>
+    <t>8801117158118</t>
+  </si>
+  <si>
+    <t>8801118879425</t>
+  </si>
+  <si>
+    <t>8801166234023</t>
+  </si>
+  <si>
+    <t>8801308448585</t>
+  </si>
+  <si>
+    <t>8809296883555</t>
+  </si>
+  <si>
+    <t>8809471234127</t>
+  </si>
+  <si>
+    <t>8809495076482</t>
+  </si>
+  <si>
+    <t>8809704426831</t>
+  </si>
+  <si>
+    <t>8809709260898</t>
+  </si>
+  <si>
+    <t>8809709261680</t>
+  </si>
+  <si>
+    <t>8809913650003</t>
+  </si>
+  <si>
+    <t>8936061260126</t>
+  </si>
+  <si>
+    <t>80001263</t>
+  </si>
+  <si>
+    <t>4902806126549</t>
+  </si>
+  <si>
+    <t>8801045570082</t>
+  </si>
+  <si>
+    <t>8801166234122</t>
+  </si>
+  <si>
+    <t>8801166239134</t>
+  </si>
+  <si>
+    <t>8809482500792</t>
+  </si>
+  <si>
+    <t>4987176080202</t>
+  </si>
+  <si>
+    <t>8801037064346</t>
+  </si>
+  <si>
+    <t>8801045892344</t>
+  </si>
+  <si>
+    <t>8801062636822</t>
+  </si>
+  <si>
+    <t>8801166560245</t>
+  </si>
+  <si>
+    <t>8801019307133</t>
+  </si>
+  <si>
+    <t>8801037096378</t>
+  </si>
+  <si>
+    <t>8801043036597</t>
+  </si>
+  <si>
+    <t>8801043068635</t>
+  </si>
+  <si>
+    <t>8801094589103</t>
+  </si>
+  <si>
+    <t>8801117169206</t>
+  </si>
+  <si>
+    <t>8806035112723</t>
+  </si>
+  <si>
+    <t>8809422043884</t>
+  </si>
+  <si>
+    <t>8809683300108</t>
+  </si>
+  <si>
+    <t>80768258</t>
+  </si>
+  <si>
+    <t>8801308447427</t>
+  </si>
+  <si>
+    <t>8809318027882</t>
+  </si>
+  <si>
+    <t>4965086006000</t>
+  </si>
+  <si>
+    <t>8801056085971</t>
+  </si>
+  <si>
+    <t>8801062860197</t>
+  </si>
+  <si>
+    <t>8801073212619</t>
+  </si>
+  <si>
+    <t>8801117277406</t>
+  </si>
+  <si>
+    <t>8804224266615</t>
+  </si>
+  <si>
+    <t>8809296882992</t>
+  </si>
+  <si>
+    <t>8809299232879</t>
+  </si>
+  <si>
+    <t>8809491689181</t>
+  </si>
+  <si>
+    <t>071570001667</t>
+  </si>
+  <si>
+    <t>8437000482093</t>
+  </si>
+  <si>
+    <t>8691216099074</t>
+  </si>
+  <si>
+    <t>8801037065619</t>
+  </si>
+  <si>
+    <t>8801037088168</t>
+  </si>
+  <si>
+    <t>8801043070003</t>
+  </si>
+  <si>
+    <t>8801056233204</t>
+  </si>
+  <si>
+    <t>8801073311305</t>
+  </si>
+  <si>
+    <t>8801105910391</t>
+  </si>
+  <si>
+    <t>8801166230476</t>
+  </si>
+  <si>
+    <t>8806002006437</t>
+  </si>
+  <si>
+    <t>8806016186118</t>
+  </si>
+  <si>
+    <t>8809027556963</t>
+  </si>
+  <si>
+    <t>8809350089732</t>
+  </si>
+  <si>
+    <t>8809556566891</t>
+  </si>
+  <si>
+    <t>4978664500098</t>
+  </si>
+  <si>
+    <t>8801019204951</t>
+  </si>
+  <si>
+    <t>8801047642015</t>
+  </si>
+  <si>
+    <t>8801062634330</t>
+  </si>
+  <si>
+    <t>8801094082406</t>
+  </si>
+  <si>
+    <t>8801097235014</t>
+  </si>
+  <si>
+    <t>8801119241511</t>
+  </si>
+  <si>
+    <t>8801166234221</t>
+  </si>
+  <si>
+    <t>8801382132400</t>
+  </si>
+  <si>
+    <t>8802456701409</t>
+  </si>
+  <si>
+    <t>8809023007254</t>
+  </si>
+  <si>
+    <t>8809239323506</t>
+  </si>
+  <si>
+    <t>8809415431803</t>
+  </si>
+  <si>
+    <t>8809648261420</t>
+  </si>
+  <si>
+    <t>8000500384794</t>
+  </si>
+  <si>
+    <t>8801045522678</t>
+  </si>
+  <si>
+    <t>8801062874125</t>
+  </si>
+  <si>
+    <t>8801068101850</t>
+  </si>
+  <si>
+    <t>8801056175955</t>
+  </si>
+  <si>
+    <t>8801043067393</t>
+  </si>
+  <si>
+    <t>8801007677064</t>
+  </si>
+  <si>
+    <t>8801047111849</t>
+  </si>
+  <si>
+    <t>8801047161578</t>
+  </si>
+  <si>
+    <t>8801111917421</t>
+  </si>
+  <si>
+    <t>8809471234004</t>
+  </si>
+  <si>
+    <t>8809533822354</t>
+  </si>
+  <si>
+    <t>8801062863778</t>
+  </si>
+  <si>
+    <t>6901035603232</t>
+  </si>
+  <si>
+    <t>8802863129490</t>
+  </si>
+  <si>
+    <t>8809486992470</t>
+  </si>
+  <si>
+    <t>8801043015523</t>
+  </si>
+  <si>
+    <t>8801056083571</t>
+  </si>
+  <si>
+    <t>8801062311170</t>
+  </si>
+  <si>
+    <t>8809288633281</t>
+  </si>
+  <si>
+    <t>8809898131344</t>
+  </si>
+  <si>
+    <t>6921211116660</t>
+  </si>
+  <si>
+    <t>8801043036078</t>
+  </si>
+  <si>
+    <t>8801056234065</t>
+  </si>
+  <si>
+    <t>8801382127130</t>
+  </si>
+  <si>
+    <t>8809841061261</t>
+  </si>
+  <si>
+    <t>8801007295312</t>
+  </si>
+  <si>
+    <t>8801037018332</t>
+  </si>
+  <si>
+    <t>8809422040876</t>
+  </si>
+  <si>
+    <t>8809695250163</t>
+  </si>
+  <si>
+    <t>4001686375754</t>
+  </si>
+  <si>
+    <t>8809027550084</t>
+  </si>
+  <si>
+    <t>8809900330222</t>
+  </si>
+  <si>
+    <t>7610700607046</t>
+  </si>
+  <si>
+    <t>8801007867045</t>
+  </si>
+  <si>
+    <t>8801013777260</t>
+  </si>
+  <si>
+    <t>8801033795916</t>
+  </si>
+  <si>
+    <t>8801037096217</t>
+  </si>
+  <si>
+    <t>8801056102593</t>
+  </si>
+  <si>
+    <t>8806011416005</t>
+  </si>
+  <si>
+    <t>8809422041217</t>
+  </si>
+  <si>
+    <t>8809565845000</t>
+  </si>
+  <si>
+    <t>8809617945122</t>
+  </si>
+  <si>
+    <t>8850389100684</t>
+  </si>
+  <si>
+    <t>3086120600044</t>
+  </si>
+  <si>
+    <t>8801104941198</t>
+  </si>
+  <si>
+    <t>8801117368005</t>
+  </si>
+  <si>
+    <t>8804973304811</t>
+  </si>
+  <si>
+    <t>8809695252617</t>
+  </si>
+  <si>
+    <t>8809773983914</t>
+  </si>
+  <si>
+    <t>4901004006813</t>
+  </si>
+  <si>
+    <t>4902430311625</t>
+  </si>
+  <si>
+    <t>8801007528618</t>
+  </si>
+  <si>
+    <t>8801037006391</t>
+  </si>
+  <si>
+    <t>8801117385101</t>
+  </si>
+  <si>
+    <t>8000500066027</t>
+  </si>
+  <si>
+    <t>8801007427386</t>
+  </si>
+  <si>
+    <t>8801019314001</t>
+  </si>
+  <si>
+    <t>8801037009026</t>
+  </si>
+  <si>
+    <t>8801037091397</t>
+  </si>
+  <si>
+    <t>8801056071301</t>
+  </si>
+  <si>
+    <t>8801056083557</t>
+  </si>
+  <si>
+    <t>8801094012403</t>
+  </si>
+  <si>
+    <t>8801162350628</t>
+  </si>
+  <si>
+    <t>8801166059671</t>
+  </si>
+  <si>
+    <t>8801308450564</t>
+  </si>
+  <si>
+    <t>8801392032950</t>
+  </si>
+  <si>
+    <t>8806107614018</t>
+  </si>
+  <si>
+    <t>6974936461287</t>
+  </si>
+  <si>
+    <t>8801037057843</t>
+  </si>
+  <si>
+    <t>8801037057867</t>
+  </si>
+  <si>
+    <t>8801043015967</t>
+  </si>
+  <si>
+    <t>8801043034562</t>
+  </si>
+  <si>
+    <t>8801094082604</t>
+  </si>
+  <si>
+    <t>8801117446901</t>
+  </si>
+  <si>
+    <t>8806002010861</t>
+  </si>
+  <si>
+    <t>5010278103735</t>
+  </si>
+  <si>
+    <t>8801001236199</t>
+  </si>
+  <si>
+    <t>8801051020014</t>
+  </si>
+  <si>
+    <t>8805492336505</t>
+  </si>
+  <si>
+    <t>8809389492879</t>
+  </si>
+  <si>
+    <t>8801037095845</t>
+  </si>
+  <si>
+    <t>8809898131122</t>
+  </si>
+  <si>
+    <t>8801024955039</t>
+  </si>
+  <si>
+    <t>8801382146179</t>
+  </si>
+  <si>
+    <t>6291003087400</t>
+  </si>
+  <si>
+    <t>8801013776829</t>
+  </si>
+  <si>
+    <t>8801043016049</t>
+  </si>
+  <si>
+    <t>8801308470838</t>
+  </si>
+  <si>
+    <t>4901004057044</t>
+  </si>
+  <si>
+    <t>8801007171210</t>
+  </si>
+  <si>
+    <t>8801048101023</t>
+  </si>
+  <si>
+    <t>8801056018948</t>
+  </si>
+  <si>
+    <t>8801056177645</t>
+  </si>
+  <si>
+    <t>8801094512668</t>
+  </si>
+  <si>
+    <t>8809009521538</t>
+  </si>
+  <si>
+    <t>8809118171808</t>
+  </si>
+  <si>
+    <t>4901360353606</t>
+  </si>
+  <si>
+    <t>8801043036139</t>
+  </si>
+  <si>
+    <t>8809446081862</t>
+  </si>
+  <si>
+    <t>8809522040530</t>
+  </si>
+  <si>
+    <t>034000239344</t>
+  </si>
+  <si>
+    <t>8801007561677</t>
+  </si>
+  <si>
+    <t>8809102951690</t>
+  </si>
+  <si>
+    <t>8809170543605</t>
+  </si>
+  <si>
+    <t>8809318029787</t>
+  </si>
+  <si>
+    <t>8809422043815</t>
+  </si>
+  <si>
+    <t>8809482500501</t>
+  </si>
+  <si>
+    <t>8809778493548</t>
+  </si>
+  <si>
+    <t>8801019611988</t>
+  </si>
+  <si>
+    <t>8801047648000</t>
+  </si>
+  <si>
+    <t>8801101888694</t>
+  </si>
+  <si>
+    <t>8801162559021</t>
+  </si>
+  <si>
+    <t>8801308470692</t>
+  </si>
+  <si>
+    <t>8806002001685</t>
+  </si>
+  <si>
+    <t>4897036692073</t>
+  </si>
+  <si>
+    <t>8801013770087</t>
+  </si>
+  <si>
+    <t>8801030998075</t>
+  </si>
+  <si>
+    <t>8801043015981</t>
+  </si>
+  <si>
+    <t>8801062634415</t>
+  </si>
+  <si>
+    <t>8801073110502</t>
+  </si>
+  <si>
+    <t>8801117267605</t>
+  </si>
+  <si>
+    <t>8801019316708</t>
+  </si>
+  <si>
+    <t>8801725001448</t>
+  </si>
+  <si>
+    <t>8809556567140</t>
+  </si>
+  <si>
+    <t>8801007512259</t>
+  </si>
+  <si>
+    <t>8801007760292</t>
+  </si>
+  <si>
+    <t>8801047121350</t>
+  </si>
+  <si>
+    <t>9556001216144</t>
+  </si>
+  <si>
+    <t>4902750444478</t>
+  </si>
+  <si>
+    <t>8801007022635</t>
+  </si>
+  <si>
+    <t>8801007176314</t>
+  </si>
+  <si>
+    <t>8801043015714</t>
+  </si>
+  <si>
+    <t>8801073212596</t>
+  </si>
+  <si>
+    <t>8801308447366</t>
+  </si>
+  <si>
+    <t>8801308450588</t>
+  </si>
+  <si>
+    <t>8801858046972</t>
+  </si>
+  <si>
+    <t>8809565845017</t>
+  </si>
+  <si>
+    <t>6926106108447</t>
+  </si>
+  <si>
+    <t>8801005002295</t>
+  </si>
+  <si>
+    <t>8801019612015</t>
+  </si>
+  <si>
+    <t>8801117781705</t>
+  </si>
+  <si>
+    <t>8801117781804</t>
+  </si>
+  <si>
+    <t>8806107614308</t>
+  </si>
+  <si>
+    <t>8801019608766</t>
+  </si>
+  <si>
+    <t>8801043069700</t>
+  </si>
+  <si>
+    <t>8801260419609</t>
+  </si>
+  <si>
+    <t>8806002005805</t>
+  </si>
+  <si>
+    <t>8809292140492</t>
+  </si>
+  <si>
+    <t>8809788010766</t>
+  </si>
+  <si>
+    <t>8801007071046</t>
+  </si>
+  <si>
+    <t>8801056040925</t>
+  </si>
+  <si>
+    <t>8809491683196</t>
+  </si>
+  <si>
+    <t>8801045141213</t>
+  </si>
+  <si>
+    <t>8809683300467</t>
+  </si>
+  <si>
+    <t>8888021203172</t>
+  </si>
+  <si>
+    <t>1200108002954</t>
+  </si>
+  <si>
+    <t>6914973603202</t>
+  </si>
+  <si>
+    <t>8801007167510</t>
+  </si>
+  <si>
+    <t>8801047643630</t>
+  </si>
+  <si>
+    <t>8801117694906</t>
+  </si>
+  <si>
+    <t>8801166222440</t>
+  </si>
+  <si>
+    <t>8806002001845</t>
+  </si>
+  <si>
+    <t>8806107612052</t>
+  </si>
+  <si>
+    <t>8809678520849</t>
+  </si>
+  <si>
+    <t>4902430851664</t>
+  </si>
+  <si>
+    <t>8436556395932</t>
+  </si>
+  <si>
+    <t>8801019611971</t>
+  </si>
+  <si>
+    <t>8801043014809</t>
+  </si>
+  <si>
+    <t>8801117365103</t>
+  </si>
+  <si>
+    <t>8809158901526</t>
+  </si>
+  <si>
+    <t>8809483850063</t>
+  </si>
+  <si>
+    <t>8809648261437</t>
+  </si>
+  <si>
+    <t>8801045890418</t>
+  </si>
+  <si>
+    <t>8801111186216</t>
+  </si>
+  <si>
+    <t>8809482500488</t>
+  </si>
+  <si>
+    <t>3045140105502</t>
+  </si>
+  <si>
+    <t>7622201750749</t>
+  </si>
+  <si>
+    <t>8801056177539</t>
+  </si>
+  <si>
+    <t>8801094083007</t>
+  </si>
+  <si>
+    <t>8809116170384</t>
+  </si>
+  <si>
+    <t>8809311492137</t>
+  </si>
+  <si>
+    <t>8801037022322</t>
+  </si>
+  <si>
+    <t>8801045560076</t>
+  </si>
+  <si>
+    <t>8801166234214</t>
+  </si>
+  <si>
+    <t>8801308447410</t>
+  </si>
+  <si>
+    <t>8804888002321</t>
+  </si>
+  <si>
+    <t>8809832940735</t>
+  </si>
+  <si>
+    <t>4902430741873</t>
+  </si>
+  <si>
+    <t>5908310283159</t>
+  </si>
+  <si>
+    <t>8801001238056</t>
+  </si>
+  <si>
+    <t>8801007054186</t>
+  </si>
+  <si>
+    <t>8801007310572</t>
+  </si>
+  <si>
+    <t>8801007403168</t>
+  </si>
+  <si>
+    <t>8801037094701</t>
+  </si>
+  <si>
+    <t>8801037096392</t>
+  </si>
+  <si>
+    <t>8801045312170</t>
+  </si>
+  <si>
+    <t>8801094023027</t>
+  </si>
+  <si>
+    <t>8801104941006</t>
+  </si>
+  <si>
+    <t>8801308470333</t>
+  </si>
+  <si>
+    <t>8809617948000</t>
+  </si>
+  <si>
+    <t>8809692181019</t>
+  </si>
+  <si>
+    <t>8809818680266</t>
+  </si>
+  <si>
+    <t>8809885250041</t>
+  </si>
+  <si>
+    <t>4974234812790</t>
+  </si>
+  <si>
+    <t>8801043041447</t>
+  </si>
+  <si>
+    <t>8801056104641</t>
+  </si>
+  <si>
+    <t>8809300169057</t>
+  </si>
+  <si>
+    <t>6971258740649</t>
+  </si>
+  <si>
+    <t>8801030951483</t>
+  </si>
+  <si>
+    <t>8801033803031</t>
+  </si>
+  <si>
+    <t>8801382149743</t>
+  </si>
+  <si>
+    <t>8691216099579</t>
+  </si>
+  <si>
+    <t>8801047183891</t>
+  </si>
+  <si>
+    <t>8801155743567</t>
+  </si>
+  <si>
+    <t>8809146202680</t>
+  </si>
+  <si>
+    <t>8809318029732</t>
+  </si>
+  <si>
+    <t>8809408860504</t>
+  </si>
+  <si>
+    <t>8809551060660</t>
+  </si>
+  <si>
+    <t>8809783230312</t>
+  </si>
+  <si>
+    <t>8809804990362</t>
+  </si>
+  <si>
+    <t>8801045571638</t>
+  </si>
+  <si>
+    <t>8801056018900</t>
+  </si>
+  <si>
+    <t>8801094083205</t>
+  </si>
+  <si>
+    <t>8809311490041</t>
+  </si>
+  <si>
+    <t>8809720821634</t>
+  </si>
+  <si>
+    <t>8809841061377</t>
+  </si>
+  <si>
+    <t>8801046272732</t>
+  </si>
+  <si>
+    <t>8801047161592</t>
+  </si>
+  <si>
+    <t>8801051103632</t>
+  </si>
+  <si>
+    <t>8801062640782</t>
+  </si>
+  <si>
+    <t>8809266838370</t>
+  </si>
+  <si>
+    <t>4905040074362</t>
+  </si>
+  <si>
+    <t>8801047222118</t>
+  </si>
+  <si>
+    <t>8809125061857</t>
+  </si>
+  <si>
+    <t>8809216010702</t>
+  </si>
+  <si>
+    <t>8801111614344</t>
+  </si>
+  <si>
+    <t>8801117169503</t>
+  </si>
+  <si>
+    <t>7622210262202</t>
+  </si>
+  <si>
+    <t>8801051110098</t>
+  </si>
+  <si>
+    <t>8801073211032</t>
+  </si>
+  <si>
+    <t>8809375614797</t>
+  </si>
+  <si>
+    <t>8801007010410</t>
+  </si>
+  <si>
+    <t>8806016185210</t>
+  </si>
+  <si>
+    <t>8809471234363</t>
+  </si>
+  <si>
+    <t>8809632252939</t>
+  </si>
+  <si>
+    <t>4100250052425</t>
+  </si>
+  <si>
+    <t>80050278</t>
+  </si>
+  <si>
+    <t>8801308448578</t>
+  </si>
+  <si>
+    <t>8802456701294</t>
+  </si>
+  <si>
+    <t>8808244201014</t>
+  </si>
+  <si>
+    <t>8808244201045</t>
+  </si>
+  <si>
+    <t>8809146202857</t>
+  </si>
+  <si>
+    <t>4902750633155</t>
+  </si>
+  <si>
+    <t>8801111917469</t>
+  </si>
+  <si>
+    <t>8801045303000</t>
+  </si>
+  <si>
+    <t>8806002009957</t>
+  </si>
+  <si>
+    <t>8938506170779</t>
+  </si>
+  <si>
+    <t>8806011615408</t>
+  </si>
+  <si>
+    <t>4000512994688</t>
+  </si>
+  <si>
+    <t>4905040074379</t>
+  </si>
+  <si>
+    <t>8801019315442</t>
+  </si>
+  <si>
+    <t>8809190085888</t>
+  </si>
+  <si>
+    <t>8809804990379</t>
+  </si>
+  <si>
+    <t>8801111936958</t>
+  </si>
+  <si>
+    <t>8801062013388</t>
+  </si>
+  <si>
+    <t>8801489843421</t>
+  </si>
+  <si>
+    <t>4901550271246</t>
+  </si>
+  <si>
+    <t>8801105913231</t>
+  </si>
+  <si>
+    <t>8809102953618</t>
+  </si>
+  <si>
+    <t>8801111180481</t>
+  </si>
+  <si>
+    <t>8801119381019</t>
+  </si>
+  <si>
+    <t>8809900332967</t>
   </si>
 </sst>
 </file>
@@ -88,13 +1219,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -409,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36763A54-F5F7-4271-9A5C-058C52A58CFF}">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -426,183 +1558,1888 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>8809396242702</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>8809203950608</v>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>8801068921021</v>
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>8801068921038</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>8801066062832</v>
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>8809424943106</v>
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>8801073212305</v>
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8809443710376</v>
+      <c r="A9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8801123311057</v>
+      <c r="A10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>8801007880303</v>
+      <c r="A11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>8804127012777</v>
+      <c r="A12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>8801033808630</v>
+      <c r="A13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>8809288635315</v>
+      <c r="A14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>6974104802843</v>
+      <c r="A15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>8809396242689</v>
+      <c r="A16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>8801068920758</v>
+      <c r="A17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>8809203950592</v>
+      <c r="A18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>8801069419633</v>
+      <c r="A19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>8801308447427</v>
+      <c r="A20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>8809877690176</v>
+      <c r="A21" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>8809804990362</v>
+      <c r="A22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>8801045890692</v>
+      <c r="A23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>8809613592214</v>
+      <c r="A24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>9002490100070</v>
+      <c r="A25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>8801104942485</v>
+      <c r="A26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>8801069416212</v>
+      <c r="A27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>8809097855089</v>
+      <c r="A28" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>8801728107659</v>
+      <c r="A29" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>821783111017</v>
+      <c r="A30" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>8801111951845</v>
+      <c r="A31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>8801117494100</v>
+      <c r="A32" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>8809609520337</v>
+      <c r="A33" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>8801062857883</v>
+      <c r="A34" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>8809056561570</v>
+      <c r="A35" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>8809251334993</v>
+      <c r="A36" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>8809038475932</v>
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/input_excel.xlsx
+++ b/input_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71A97B8-5192-4A22-88E2-4461CA11A967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EEC7BD-9196-4F17-A666-340C52FEDCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{29941D9F-BD00-4152-B376-C45173F1490C}"/>
   </bookViews>
@@ -36,10 +36,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>상품코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8801097239814</t>
+  </si>
+  <si>
+    <t>8801001238049</t>
+  </si>
+  <si>
+    <t>8801001238056</t>
+  </si>
+  <si>
+    <t>8809422044447</t>
+  </si>
+  <si>
+    <t>8809422044430</t>
+  </si>
+  <si>
+    <t>8801094577100</t>
+  </si>
+  <si>
+    <t>8801094547103</t>
+  </si>
+  <si>
+    <t>8801094589103</t>
+  </si>
+  <si>
+    <t>8801105916706</t>
+  </si>
+  <si>
+    <t>8801105916713</t>
+  </si>
+  <si>
+    <t>8801382148500</t>
+  </si>
+  <si>
+    <t>8801382149743</t>
+  </si>
+  <si>
+    <t>8808024031916</t>
+  </si>
+  <si>
+    <t>8808024031909</t>
+  </si>
+  <si>
+    <t>8806002020174</t>
+  </si>
+  <si>
+    <t>8806002006437</t>
+  </si>
+  <si>
+    <t>8806002009957</t>
+  </si>
+  <si>
+    <t>8801104669658</t>
+  </si>
+  <si>
+    <t>8801104669672</t>
+  </si>
+  <si>
+    <t>8801056094591</t>
+  </si>
+  <si>
+    <t>8801056096052</t>
+  </si>
+  <si>
+    <t>8801056102036</t>
+  </si>
+  <si>
+    <t>8801056234027</t>
+  </si>
+  <si>
+    <t>8801056234034</t>
+  </si>
+  <si>
+    <t>8801155743710</t>
+  </si>
+  <si>
+    <t>8801155724887</t>
+  </si>
+  <si>
+    <t>8801155724870</t>
+  </si>
+  <si>
+    <t>8809495077809</t>
+  </si>
+  <si>
+    <t>8809495077816</t>
+  </si>
+  <si>
+    <t>8809046594199</t>
+  </si>
+  <si>
+    <t>8802711189614</t>
+  </si>
+  <si>
+    <t>8802711189591</t>
+  </si>
+  <si>
+    <t>8809046594212</t>
+  </si>
+  <si>
+    <t>8809854110789</t>
+  </si>
+  <si>
+    <t>8809854110819</t>
+  </si>
+  <si>
+    <t>8809184809896</t>
   </si>
 </sst>
 </file>
@@ -410,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36763A54-F5F7-4271-9A5C-058C52A58CFF}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -427,153 +535,183 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>50426416</v>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>9556001216144</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>9556001284358</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>4903032242362</v>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>8801043067317</v>
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>6921211104292</v>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>8801043068178</v>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>8801062870585</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>8801062628476</v>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>5012035901738</v>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>4001686301555</v>
+      <c r="A12" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>4001686375754</v>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>8691216099074</v>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>8691216095557</v>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>8691216099579</v>
+      <c r="A16" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
-        <v>8691216098794</v>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
-        <v>8691216096370</v>
+      <c r="A18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
-        <v>8886467126789</v>
+      <c r="A19" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
-        <v>8886467126796</v>
+      <c r="A20" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
-        <v>8809288635179</v>
+      <c r="A21" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
-        <v>8801066019447</v>
+      <c r="A22" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1">
-        <v>8801123311019</v>
+      <c r="A23" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="1">
-        <v>8801066056558</v>
+      <c r="A24" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1">
-        <v>8801492373090</v>
+      <c r="A25" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="1">
-        <v>8801077285800</v>
+      <c r="A26" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="1">
-        <v>8801492384386</v>
+      <c r="A27" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1">
-        <v>8803404004375</v>
+      <c r="A28" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="1">
-        <v>8801077308608</v>
+      <c r="A29" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="1">
-        <v>8801077285701</v>
+      <c r="A30" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="1">
-        <v>8801077377802</v>
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/input_excel.xlsx
+++ b/input_excel.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EEC7BD-9196-4F17-A666-340C52FEDCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6865D10-F0B0-45F9-87F8-D39854BB4218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{29941D9F-BD00-4152-B376-C45173F1490C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,118 +37,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>상품코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8801097239814</t>
-  </si>
-  <si>
-    <t>8801001238049</t>
-  </si>
-  <si>
-    <t>8801001238056</t>
-  </si>
-  <si>
-    <t>8809422044447</t>
-  </si>
-  <si>
-    <t>8809422044430</t>
-  </si>
-  <si>
-    <t>8801094577100</t>
-  </si>
-  <si>
-    <t>8801094547103</t>
-  </si>
-  <si>
-    <t>8801094589103</t>
-  </si>
-  <si>
-    <t>8801105916706</t>
-  </si>
-  <si>
-    <t>8801105916713</t>
-  </si>
-  <si>
-    <t>8801382148500</t>
-  </si>
-  <si>
-    <t>8801382149743</t>
-  </si>
-  <si>
-    <t>8808024031916</t>
-  </si>
-  <si>
-    <t>8808024031909</t>
-  </si>
-  <si>
-    <t>8806002020174</t>
-  </si>
-  <si>
-    <t>8806002006437</t>
-  </si>
-  <si>
-    <t>8806002009957</t>
-  </si>
-  <si>
-    <t>8801104669658</t>
-  </si>
-  <si>
-    <t>8801104669672</t>
-  </si>
-  <si>
-    <t>8801056094591</t>
-  </si>
-  <si>
-    <t>8801056096052</t>
-  </si>
-  <si>
-    <t>8801056102036</t>
-  </si>
-  <si>
-    <t>8801056234027</t>
-  </si>
-  <si>
-    <t>8801056234034</t>
-  </si>
-  <si>
-    <t>8801155743710</t>
-  </si>
-  <si>
-    <t>8801155724887</t>
-  </si>
-  <si>
-    <t>8801155724870</t>
-  </si>
-  <si>
-    <t>8809495077809</t>
-  </si>
-  <si>
-    <t>8809495077816</t>
-  </si>
-  <si>
-    <t>8809046594199</t>
-  </si>
-  <si>
-    <t>8802711189614</t>
-  </si>
-  <si>
-    <t>8802711189591</t>
-  </si>
-  <si>
-    <t>8809046594212</t>
-  </si>
-  <si>
-    <t>8809854110789</t>
-  </si>
-  <si>
-    <t>8809854110819</t>
-  </si>
-  <si>
-    <t>8809184809896</t>
   </si>
 </sst>
 </file>
@@ -157,7 +50,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +66,20 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -190,13 +97,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,9 +129,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{E4A82043-B716-47CF-BC9E-251F6B4FB16F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36763A54-F5F7-4271-9A5C-058C52A58CFF}">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -534,189 +463,376 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>2345001100471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2800024016456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>2800045111215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>8809588770020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>8809588770075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E18612-37FD-4C8E-9981-B81B2D1B99DD}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="2">
+        <v>8850999016863</v>
+      </c>
+      <c r="D1" s="2">
+        <v>8809857350083</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>8850999018508</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8809844301425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>8801097135413</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8809844301432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>8801223012717</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8801068923711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>8806002023397</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8801068923728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>8806002023410</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8801068923735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>8806002023205</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8801068923988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>8806002023182</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8801068924169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>8806002023168</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8801068923698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8801013777260</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8801068923704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>8801013777468</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8809857350090</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>8806011415992</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2700038855983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>8806011416005</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2700038855990</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>8806016186118</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2700038856003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>8806016185210</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2700038856010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>8806016184114</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2700038855945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>8806016310018</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2700038855969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>8809556566891</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8801068922721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>8806107612052</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2700038856027</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>8806107614018</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8809396242870</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>8809329050015</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8809011836033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>8801056243258</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8809971930239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>8801056240851</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6970729569604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>8809125061857</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8809682780437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>8801056175900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>8801056242725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>8801056241506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>8801056175955</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>8801056226459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>8801094083205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>8801094063283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>8801094082604</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>8801094062675</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>8801094072667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>8809567707627</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>8809567706354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>8809567706361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>8809495078967</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>8801104944878</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>8801104944892</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>